--- a/Data Files/Backoffice/Arena_15.xlsx
+++ b/Data Files/Backoffice/Arena_15.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
